--- a/PLANO DE TESTE.xlsx
+++ b/PLANO DE TESTE.xlsx
@@ -1,74 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e7cd05925d4e36d/Backup_Samsung_Branco/Facens/tqs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive\Documentos\FACENS\4º Semestre\UX, UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18170712-27BB-4DA4-B459-F8F6DE7D966D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153C6AE2-8B2A-4F8C-8368-10A5F16C8B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMATIVO" sheetId="4" r:id="rId1"/>
     <sheet name="SISTEMA" sheetId="1" r:id="rId2"/>
     <sheet name="ACEITAÇÃO" sheetId="2" r:id="rId3"/>
-    <sheet name="MAPA DA JORNADA DO USUÁRIO" sheetId="5" r:id="rId4"/>
-    <sheet name="CAIXA BRANCA (ESTÁTICO)" sheetId="3" r:id="rId5"/>
+    <sheet name="CAIXA BRANCA (ESTÁTICO)" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="139">
+  <si>
+    <t>PROJETO / SISTEMA</t>
+  </si>
+  <si>
+    <t>REVISOR</t>
+  </si>
+  <si>
+    <t>DATA DA REVISÃO</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>ARTEFATO COM ERRO</t>
+  </si>
+  <si>
+    <t>CORREÇÕES A SEREM REALIZADAS</t>
+  </si>
+  <si>
+    <t>O código está documentado conforme os padrões da empresa?</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>Os arquivos e classes estão com a nomenclatura significativa?</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>As variáveis e as constantes estão com nomenclatura significativa?</t>
+  </si>
+  <si>
+    <t>Existe algum loop sem condição de parada?</t>
+  </si>
+  <si>
+    <t>Existe algum NullPointer não tratado?</t>
+  </si>
+  <si>
+    <t>Existe alguma variável não inicializada?</t>
+  </si>
+  <si>
+    <t>O código obedece a arquitetura definida para o sistema?</t>
+  </si>
+  <si>
+    <t>Foi realizado o tratamento de exceções?</t>
+  </si>
   <si>
     <t>CLIENTE</t>
   </si>
   <si>
-    <t>[NOME DO CLIENTE]</t>
-  </si>
-  <si>
     <t>AMBIENTE DE TESTE</t>
   </si>
   <si>
-    <t>[VERSÃO DO PROJETO]</t>
+    <t>PROJETO</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>COLABORADOR</t>
+  </si>
+  <si>
+    <t>SISTEMA OPERACIONAL</t>
+  </si>
+  <si>
+    <t>REVISADO</t>
+  </si>
+  <si>
+    <t>[REVISOR DOS CENÁRIOS]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIÇÃO DO SOFTWARE </t>
+  </si>
+  <si>
+    <t>DATA CRIAÇÃO</t>
+  </si>
+  <si>
+    <t>TESTADO POR</t>
   </si>
   <si>
     <t>HISTÓRICO DE REVISÕES</t>
   </si>
   <si>
-    <t>PROJETO</t>
-  </si>
-  <si>
-    <t>[TÍTULO DO PROJETO]</t>
-  </si>
-  <si>
-    <t>HARDWARE</t>
-  </si>
-  <si>
-    <t>[DESCRIÇÃO DO APARELHO]</t>
-  </si>
-  <si>
     <t>DATA</t>
   </si>
   <si>
@@ -81,45 +132,6 @@
     <t>VERSÃO DA APP</t>
   </si>
   <si>
-    <t>COLABORADOR</t>
-  </si>
-  <si>
-    <t>[AUTOR DOS CENÁRIOS]</t>
-  </si>
-  <si>
-    <t>SISTEMA OPERACIONAL</t>
-  </si>
-  <si>
-    <t>[DESCRIÇÃO DO S.O.]</t>
-  </si>
-  <si>
-    <t>REVISADO</t>
-  </si>
-  <si>
-    <t>[REVISOR DOS CENÁRIOS]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCRIÇÃO DO SOFTWARE </t>
-  </si>
-  <si>
-    <t>[VERSÃO DO APP, NAVEGADOR UTILIZADO]</t>
-  </si>
-  <si>
-    <t>DATA CRIAÇÃO</t>
-  </si>
-  <si>
-    <t>[DD/MM/AA]</t>
-  </si>
-  <si>
-    <t>TESTADO POR</t>
-  </si>
-  <si>
-    <t>[TESTER]</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>TITULO</t>
   </si>
   <si>
@@ -132,9 +144,6 @@
     <t>RESULTADO ESPERADO</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
     <t>OBS.</t>
   </si>
   <si>
@@ -150,85 +159,304 @@
     <t>RISCOS/AÇÕES</t>
   </si>
   <si>
-    <t>ETAPA</t>
-  </si>
-  <si>
-    <t>AÇÕES DO JOGADOR</t>
-  </si>
-  <si>
-    <t>SENTIMENTOS</t>
-  </si>
-  <si>
-    <t>EXPERIÊNCIA</t>
-  </si>
-  <si>
-    <t>APROVEITAMENTO</t>
-  </si>
-  <si>
-    <t>RELEVÂNCIA</t>
-  </si>
-  <si>
-    <t>UTILIDADE</t>
-  </si>
-  <si>
-    <t>OPORTUNIDADES</t>
-  </si>
-  <si>
-    <t>PROJETO / SISTEMA</t>
+    <t>Bla Bla Car</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>Teste de Login/Cadastro</t>
+  </si>
+  <si>
+    <t>iOS 17.4.1</t>
+  </si>
+  <si>
+    <t>Fábio Gabriel Vieira</t>
+  </si>
+  <si>
+    <t>Iphone 11 - 2x 2.65 GHz Lightning + 4x 1.8 GHz Thunder</t>
+  </si>
+  <si>
+    <t>5.183.0</t>
+  </si>
+  <si>
+    <t>Versão 1</t>
+  </si>
+  <si>
+    <t>Iphone 11 128 GB</t>
+  </si>
+  <si>
+    <t>Teste unitário do login/cadastro no app Bla Bla Car</t>
+  </si>
+  <si>
+    <t>Caso o usuário não tenha seu nome de usuário ou e-mail cadastrados, ele não pode ter acesso ao sistema.</t>
+  </si>
+  <si>
+    <t>Ao clicar no primeiro botão "Continuar com e-mail", o usuário opta por entrar sem integração com nenhum outro serviço ou API</t>
+  </si>
+  <si>
+    <t>1. A solicitação de login irá para o servidor da empresa e os dados serão conferidos
+2. Caso os dados forem válidos, o solicitante tem acesso à plataforma</t>
+  </si>
+  <si>
+    <t>funcionou perfeitamente</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Caso o solicitante não digite os os caracteres especiais, aparecerá uma mensagem o informando das condições mínimas para inserir um e-mail.</t>
+  </si>
+  <si>
+    <t>1. Antes de validar o acesso, o software deve informar o erro no campo "e-mail"</t>
+  </si>
+  <si>
+    <t>apareceu mensagem personalizada, informando o erro no campo "e-mail"</t>
+  </si>
+  <si>
+    <t>1.Usuário irá digitar um e-mail sem @
+2. Após isso, colocará a senha e apertará o botão "entrar"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Ao inserir o e-mail,a máscara some e começa a verificação.
+2.Após inserção do e-mail, o usuário deve inserir a senha e apertar o botão "entrar" </t>
+  </si>
+  <si>
+    <t>1. Irá digitar o e-mail correto
+2. Inserir senha errada</t>
+  </si>
+  <si>
+    <t>Não permitir acesso e informar erro nas informações</t>
+  </si>
+  <si>
+    <t>Ocorreu normalmente</t>
+  </si>
+  <si>
+    <t>Se o usuário digitar um e-mail com os caracteres corretos, porém não tiver cadastro na plataforma</t>
+  </si>
+  <si>
+    <t>1.Usuário irá digitar um e-mail 
+2. Após isso, colocará a senha e apertará o botão "entrar"</t>
+  </si>
+  <si>
+    <t>Caso o solicitante não se recorde de sua senha, ele poderá clicar  no texto abaixo do campo senha chamado : Esqueci minha senha. Onde poderá enviar um e-mail resetando-a.</t>
+  </si>
+  <si>
+    <t>1. Cliclar na opção "esqueci minha senha"
+2. Ser redirecionado para outra tela solicitando o e-mail para mandar nova senha</t>
+  </si>
+  <si>
+    <t>Redirecionar a página e pedir o e-mail</t>
+  </si>
+  <si>
+    <t>Após ser redirecionado, deve verificar se o e-mail informado realmente possui cadastro</t>
+  </si>
+  <si>
+    <t>1. Inserir e-mail
+2. Cliclar no botão "Enviar link de redefinição"</t>
+  </si>
+  <si>
+    <t>Informar o erro de que o e-mail não foi encontrado ou algo parecido</t>
+  </si>
+  <si>
+    <t>erro genérico informado: "Ocorreu um erro"</t>
+  </si>
+  <si>
+    <t>Ao cliclar no segundo botão da página, o usuário poderá realizar o login utilizando o Facebook</t>
+  </si>
+  <si>
+    <t>Realizar login utilizando cadastro do facebook</t>
+  </si>
+  <si>
+    <t>acima do esperado, já que apareceu um pop up confirmando se o usuário realmente quer ser redirecionado ao facebook e informando que o app e o site irão compartilhar informações sobre mim</t>
+  </si>
+  <si>
+    <t>Caso clique em cancelar, o app deve voltar a tela de login</t>
+  </si>
+  <si>
+    <t>1. Clicar na opção "Continuar com Facebook"
+2. Visualizar pop up de confirmação
+3. Clicar em cancelar
+4. Voltar para página de login do app</t>
+  </si>
+  <si>
+    <t>1.Clicar na opçao "Continuar com Facebook"
+2. Fazer login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retornar para o app </t>
+  </si>
+  <si>
+    <t>Aceitando o compartilhamento de dados entre as duas plataformas, deve ser redirecionado para o Facebook para realizar login na plataforma deles</t>
+  </si>
+  <si>
+    <t>1. Clicar na opção "Continuar com Facebook"
+2. Visualizar pop up de confirmação
+3. Clicar em confirmar
+4. Ser redirecionado com sucesso
+5. Realizar login</t>
+  </si>
+  <si>
+    <t>Efetuar login pelo Facebook</t>
+  </si>
+  <si>
+    <t>tudo certo</t>
+  </si>
+  <si>
+    <t>1.Clicar na opçao "Continuar com Apple"
+2. Fazer login</t>
+  </si>
+  <si>
+    <t>Ao cliclar no terceiro botão da página, o usuário poderá realizar o login utilizando os serviços da Apple</t>
+  </si>
+  <si>
+    <t>Realizar login utilizando conta apple</t>
+  </si>
+  <si>
+    <t>Como o aparelho é IOS, o sistema operacional detectou a tentativa de acesso e redirecionou para um recurso interno do ios, podendo fazer o login ainda mais rápido</t>
+  </si>
+  <si>
+    <t>Caso o usuário deseje entrar de outra maneira, o app deve voltar a tela de login</t>
+  </si>
+  <si>
+    <t>1. Clicar na opção "Continuar com Apple"
+2. Clicar em cancelar
+4. Voltar para página de login do app</t>
+  </si>
+  <si>
+    <t>Por conta da utilização do ios, o software permite que eu feche a interação para login.</t>
+  </si>
+  <si>
+    <t>Caso o usuário não for membro, ele pode clicar no link: cadastre-se, e será redirecionado para tela de cadastro</t>
+  </si>
+  <si>
+    <t>1. Cliclar no texto com link
+2. Ser redirecionado para aba de cadastro</t>
+  </si>
+  <si>
+    <t>Iniciar cadastro de usuário</t>
+  </si>
+  <si>
+    <t>Ao invés da mudança de tela, o app mantém os mesmos 3 botões de login, porém muda o título do layout para cadastro, além de já informar que caso o usuário inicie o cadastro, ele aceita os termos de serviço</t>
+  </si>
+  <si>
+    <t>Caso o usuário concorde com os termos e incie o cadastro, ele poderá clicar no primeiro botão e cadastrar direto no app</t>
+  </si>
+  <si>
+    <t>1.Clicar no primeiro botão
+2. Iniciar Cadastro</t>
+  </si>
+  <si>
+    <t>Iniciar cadastro e salvar no banco de dados</t>
+  </si>
+  <si>
+    <t>Quando o usuário clica, ele pode selecionar um checkbox confirmando que deseja receber e-mail de notificações e promoçoes no app</t>
+  </si>
+  <si>
+    <t>Após verificar se deseja receber os e-mails o usuário incia de fato, informando nome e sobrenome, data de nascimento e como gostaria de ser chamado</t>
+  </si>
+  <si>
+    <t>1. Confirmar ou não o recebimento de e-mails
+2. Inserir Nome, sobrenome
+3. Selecionar data de aniversário
+4. Informar como gostaria de ser chamado</t>
+  </si>
+  <si>
+    <t>Inserir as informações e continuar para a etapa de senha</t>
+  </si>
+  <si>
+    <t>Todo o procedimento ocorre perfeitamente</t>
+  </si>
+  <si>
+    <t>Inserir e-mail fora do padrão, não pode ir para a próxima etapa</t>
+  </si>
+  <si>
+    <t>1. Confirmar ou não o recebimento de e-mails
+2. Inserir o e-mail</t>
+  </si>
+  <si>
+    <t>Deve não permitir que o usuário avance as etapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloqueou e ainda mostrou exemplo de como deve ser </t>
+  </si>
+  <si>
+    <t>A senha deve possuir características mínimas de segurança</t>
+  </si>
+  <si>
+    <t>Cada usuário deve ter um e-mail exclusivo, não podendo ter dois e-mails cadastrados em uma mesma conta</t>
+  </si>
+  <si>
+    <t>1.Clicar no primeiro botão
+2. Iniciar Cadastro
+3. Informar se deseja ou n receber e-mails de propaganda
+4. Inserir e-mail</t>
+  </si>
+  <si>
+    <t>Os dados deverão ser checados e caso possuia erro, impedir o prosseguimento e informar o erro</t>
+  </si>
+  <si>
+    <t>1.Clicar no primeiro botão
+2. Iniciar Cadastro
+3. Informar se deseja ou n receber e-mails de propaganda
+4. Inserir e-mail
+5. Inserir Nome, sobrenome, data de nascimento e sexo
+6. Informar senha</t>
+  </si>
+  <si>
+    <t>Caso a senha não seja nos padrões mínimos de segurança, deve aparecer uma mensagem informando como deverá ser feita</t>
+  </si>
+  <si>
+    <t>Aparece exatamente o que está pendente para poder prosseguir para a próxima etapa</t>
+  </si>
+  <si>
+    <t>Caso o usuário concorde com os termos e incie o cadastro, ele poderá clicar no login através da conta Apple e será direcionado para a tela do próprio sistema operacional</t>
+  </si>
+  <si>
+    <t>1.Clicar no terceiro botão
+2. Confirmar que deseja compartilhar o e-mail
+3. Iniciar cadastro</t>
+  </si>
+  <si>
+    <t>Compartilhar o e-mail do celular e inciar o cadastro</t>
+  </si>
+  <si>
+    <t>Após compartilhar e-mail, o próprio ios faz uma verificação de de face id para poder compartilhar as informações</t>
+  </si>
+  <si>
+    <t>Caso o Face id falhe, deverá voltar para tela de cadastro e informar o que houve</t>
+  </si>
+  <si>
+    <t>1.Clicar no terceiro botão
+2. Confirmar que deseja compartilhar o e-mail
+3. Não passar na verificação de reconhecimento facial</t>
+  </si>
+  <si>
+    <t>Impedir o compartilhamento de dados e voltar para o menu de cadastro</t>
+  </si>
+  <si>
+    <t>Além de realizar as duas tentavias, após a falha, ele permite que o usuário digite a senha do celular para proseguir</t>
+  </si>
+  <si>
+    <t>Após o login via app, sem utilização de nenhum outro serviço, deve haver mais um procedimento de segurança</t>
+  </si>
+  <si>
+    <t>1. efetuar Login</t>
+  </si>
+  <si>
+    <t>Mais um teste de segurança para impedir invasores</t>
+  </si>
+  <si>
+    <t>Após login correto, o usuário deve informar um código de verificação que chega no e-mail informado anteriormente</t>
   </si>
   <si>
     <t xml:space="preserve">Teste de Caixa Branca - Etapa 2 </t>
   </si>
   <si>
-    <t>REVISOR</t>
-  </si>
-  <si>
-    <t>Érick Nunes Pintor</t>
-  </si>
-  <si>
-    <t>DATA DA REVISÃO</t>
-  </si>
-  <si>
-    <t>ITEM</t>
-  </si>
-  <si>
-    <t>ARTEFATO COM ERRO</t>
-  </si>
-  <si>
-    <t>CORREÇÕES A SEREM REALIZADAS</t>
-  </si>
-  <si>
-    <t>O código está documentado conforme os padrões da empresa?</t>
-  </si>
-  <si>
-    <t>NÃO</t>
-  </si>
-  <si>
     <t>Método verificarUsuario(String login, String senha);</t>
   </si>
   <si>
-    <t>Faltou documentar o método apontado.</t>
-  </si>
-  <si>
-    <t>Os arquivos e classes estão com a nomenclatura significativa?</t>
-  </si>
-  <si>
     <t>Classe User</t>
-  </si>
-  <si>
-    <t>Classe com nomenclatura genérica, corrigir para "UserRepository" ou "UserService"</t>
-  </si>
-  <si>
-    <t>As variáveis e as constantes estão com nomenclatura significativa?</t>
-  </si>
-  <si>
-    <t>SIM</t>
-  </si>
-  <si>
-    <t>Existe algum loop sem condição de parada?</t>
-  </si>
-  <si>
-    <t>Existe algum NullPointer não tratado?</t>
   </si>
   <si>
     <t xml:space="preserve">Método conectarBD();
@@ -238,33 +466,30 @@
     <t>A conexão pode retornar um valor null, causando um NullPointerException.</t>
   </si>
   <si>
-    <t>Existe alguma variável não inicializada?</t>
-  </si>
-  <si>
-    <t>O código obedece a arquitetura definida para o sistema?</t>
-  </si>
-  <si>
     <t>Método conectarBD()</t>
-  </si>
-  <si>
-    <t>A abertura da conexão com o BD deve acontecer na camada de persistência (DAO).</t>
-  </si>
-  <si>
-    <t>Foi realizado o tratamento de exceções?</t>
   </si>
   <si>
     <t>Método conectarBD();
 Método verificarUsuario(String login, String senha);</t>
   </si>
   <si>
-    <t>Não está sendo realizado o tratamento de exceções em ambos os métodos.</t>
+    <t>Não houve tratamento de exceções em nenhum método.</t>
+  </si>
+  <si>
+    <t>A abertura do BD está incorreta.</t>
+  </si>
+  <si>
+    <t>A classe possui nomenclatura genérica, devendo ser renomeada conforme a funcionalidade dela</t>
+  </si>
+  <si>
+    <t>Código não possui documentação.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,12 +531,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -322,21 +541,36 @@
     </font>
     <font>
       <b/>
-      <sz val="7"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,13 +581,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="18"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -369,6 +603,35 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -597,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -632,17 +895,17 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -650,17 +913,35 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -677,6 +958,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -686,44 +973,50 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1008,126 +1301,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1"/>
-    <col min="8" max="8" width="52.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="52.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.149999999999999" thickTop="1" thickBot="1">
+        <v>44</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" ht="37.200000000000003" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="24" thickTop="1" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="37.200000000000003" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="36.6" thickBot="1">
+        <v>46</v>
+      </c>
+      <c r="F3" s="9">
+        <v>45539</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="19">
+        <v>45539</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.600000000000001" thickBot="1">
-      <c r="A5" s="10" t="s">
+      <c r="D5" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1">
-      <c r="A6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1140,63 +1441,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="52.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" ht="22.9">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="17"/>
+    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1205,61 +1615,470 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G3" sqref="A2:G3"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="27"/>
+    <col min="2" max="2" width="64.44140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="27"/>
+    <col min="7" max="7" width="20" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="17"/>
+    <row r="1" spans="1:7" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="48.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A19" s="27">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1267,266 +2086,208 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6559D52C-AF2D-4087-9D48-CC8EC025C104}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999" thickBot="1">
-      <c r="A1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.9">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <cols>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="4" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="3" max="4" width="21.88671875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" ht="23.25">
-      <c r="A2" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34" t="s">
+    <row r="1" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="35"/>
-    </row>
-    <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="39">
-        <v>45625</v>
-      </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.15" thickBot="1">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="40.5">
-      <c r="A5" s="3">
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="45">
+        <v>45626</v>
+      </c>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="53.25">
-      <c r="A6" s="3">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="27">
-      <c r="A7" s="5">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" ht="23.25">
-      <c r="A8" s="3">
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="1:10" ht="46.5">
-      <c r="A9" s="5">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="3">
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="53.25">
-      <c r="A11" s="3">
+      <c r="B11" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="53.25">
-      <c r="A12" s="3">
+      <c r="B12" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>71</v>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A2:C2"/>
